--- a/hayakawa/checklist.xlsx
+++ b/hayakawa/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/hayakawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66574185-04A7-8345-B54E-E7507A14B378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E465B00-FC16-7945-89F5-06C06A82F75C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{1BD5C8C4-600A-FB48-B7CD-C19EF2E1902A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>year</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Darkness and the Fire Hunter: Witch Dinon 2</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>gamebook</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9463E91A-BF59-AD46-8E62-6A1FCB60EC7A}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,7 +476,7 @@
     <col min="5" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +492,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1986</v>
       </c>
@@ -503,8 +512,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1987</v>
       </c>
@@ -520,8 +532,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1987</v>
       </c>
@@ -537,8 +552,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1987</v>
       </c>
@@ -554,8 +572,11 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1987</v>
       </c>
@@ -570,6 +591,9 @@
       </c>
       <c r="E6" t="s">
         <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
